--- a/records/xlsx/rgb_corrected_fps.xlsx
+++ b/records/xlsx/rgb_corrected_fps.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chris\Documents\Personal\Personl Projects\Video-Processing\records\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F7C1C8-8580-4FCA-9B29-76201BE70E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -295,8 +301,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,13 +365,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -403,7 +417,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -437,6 +451,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -471,9 +486,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -646,14 +662,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -708,19 +731,19 @@
         <v>2146</v>
       </c>
       <c r="H2">
-        <v>73.054497</v>
+        <v>73.054496999999998</v>
       </c>
       <c r="I2">
-        <v>29.37533058368741</v>
+        <v>29.375330583687411</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -731,19 +754,19 @@
         <v>1138</v>
       </c>
       <c r="H3">
-        <v>38.59782</v>
+        <v>38.597819999999999</v>
       </c>
       <c r="I3">
-        <v>29.48353041700283</v>
+        <v>29.483530417002829</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -766,13 +789,13 @@
         <v>18.5637740282416</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -783,19 +806,19 @@
         <v>1137</v>
       </c>
       <c r="H5">
-        <v>38.190605</v>
+        <v>38.190604999999998</v>
       </c>
       <c r="I5">
         <v>29.77172003428592</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -812,19 +835,19 @@
         <v>1790</v>
       </c>
       <c r="H6">
-        <v>36.113806</v>
+        <v>36.113805999999997</v>
       </c>
       <c r="I6">
-        <v>49.56553180797393</v>
+        <v>49.565531807973933</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -841,19 +864,19 @@
         <v>3872</v>
       </c>
       <c r="H7">
-        <v>72.04854</v>
+        <v>72.048540000000003</v>
       </c>
       <c r="I7">
-        <v>53.74154701816303</v>
+        <v>53.741547018163033</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -873,19 +896,19 @@
         <v>1340</v>
       </c>
       <c r="H8">
-        <v>37.059608</v>
+        <v>37.059607999999997</v>
       </c>
       <c r="I8">
-        <v>36.15796475774919</v>
+        <v>36.157964757749191</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -905,16 +928,16 @@
         <v>41.309832</v>
       </c>
       <c r="I9">
-        <v>33.84182245040358</v>
+        <v>33.841822450403583</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -931,19 +954,19 @@
         <v>1438</v>
       </c>
       <c r="H10">
-        <v>25.961376</v>
+        <v>25.961376000000001</v>
       </c>
       <c r="I10">
-        <v>55.38997624779211</v>
+        <v>55.389976247792113</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -960,19 +983,19 @@
         <v>1470</v>
       </c>
       <c r="H11">
-        <v>26.567759</v>
+        <v>26.567758999999999</v>
       </c>
       <c r="I11">
-        <v>55.33022186779095</v>
+        <v>55.330221867790947</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -995,19 +1018,19 @@
         <v>2582</v>
       </c>
       <c r="H12">
-        <v>48.922989</v>
+        <v>48.922989000000001</v>
       </c>
       <c r="I12">
-        <v>52.77682440866399</v>
+        <v>52.776824408663991</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1024,19 +1047,19 @@
         <v>3145</v>
       </c>
       <c r="H13">
-        <v>60.784128</v>
+        <v>60.784128000000003</v>
       </c>
       <c r="I13">
         <v>51.74048067284933</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1053,19 +1076,19 @@
         <v>2578</v>
       </c>
       <c r="H14">
-        <v>61.6722</v>
+        <v>61.672199999999997</v>
       </c>
       <c r="I14">
-        <v>41.80165455424</v>
+        <v>41.801654554240002</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1082,19 +1105,19 @@
         <v>2704</v>
       </c>
       <c r="H15">
-        <v>63.79880499999999</v>
+        <v>63.798804999999987</v>
       </c>
       <c r="I15">
-        <v>42.3832389964044</v>
+        <v>42.383238996404401</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1114,19 +1137,19 @@
         <v>1188</v>
       </c>
       <c r="H16">
-        <v>26.326683</v>
+        <v>26.326682999999999</v>
       </c>
       <c r="I16">
-        <v>45.12532019320474</v>
+        <v>45.125320193204743</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1146,16 +1169,16 @@
         <v>29.29561</v>
       </c>
       <c r="I17">
-        <v>43.65841844563059</v>
+        <v>43.658418445630588</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1172,19 +1195,19 @@
         <v>1406</v>
       </c>
       <c r="H18">
-        <v>25.266301</v>
+        <v>25.266300999999999</v>
       </c>
       <c r="I18">
         <v>55.64724333807311</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1201,19 +1224,19 @@
         <v>1335</v>
       </c>
       <c r="H19">
-        <v>24.610403</v>
+        <v>24.610403000000002</v>
       </c>
       <c r="I19">
-        <v>54.24535307284484</v>
+        <v>54.245353072844843</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1236,19 +1259,19 @@
         <v>2495</v>
       </c>
       <c r="H20">
-        <v>56.954748</v>
+        <v>56.954748000000002</v>
       </c>
       <c r="I20">
-        <v>43.806707739274</v>
+        <v>43.806707739274003</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1265,19 +1288,19 @@
         <v>2501</v>
       </c>
       <c r="H21">
-        <v>57.296129</v>
+        <v>57.296129000000001</v>
       </c>
       <c r="I21">
-        <v>43.65041833803467</v>
+        <v>43.650418338034669</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1297,16 +1320,16 @@
         <v>48.1372</v>
       </c>
       <c r="I22">
-        <v>55.17562301089387</v>
+        <v>55.175623010893872</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1323,19 +1346,19 @@
         <v>2686</v>
       </c>
       <c r="H23">
-        <v>48.899545</v>
+        <v>48.899545000000003</v>
       </c>
       <c r="I23">
-        <v>54.9289364553392</v>
+        <v>54.928936455339198</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1358,16 +1381,16 @@
         <v>27.845039</v>
       </c>
       <c r="I24">
-        <v>54.08503827198805</v>
+        <v>54.085038271988047</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1387,16 +1410,16 @@
         <v>29.567784</v>
       </c>
       <c r="I25">
-        <v>52.08371381500893</v>
+        <v>52.083713815008927</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1413,19 +1436,19 @@
         <v>1519</v>
       </c>
       <c r="H26">
-        <v>29.396478</v>
+        <v>29.396477999999998</v>
       </c>
       <c r="I26">
-        <v>51.67285686400935</v>
+        <v>51.672856864009347</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1448,13 +1471,13 @@
         <v>47.54146978146526</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1477,19 +1500,19 @@
         <v>1682</v>
       </c>
       <c r="H28">
-        <v>31.644664</v>
+        <v>31.644663999999999</v>
       </c>
       <c r="I28">
-        <v>53.15272110331144</v>
+        <v>53.152721103311443</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1506,19 +1529,19 @@
         <v>1457</v>
       </c>
       <c r="H29">
-        <v>28.055417</v>
+        <v>28.055416999999998</v>
       </c>
       <c r="I29">
-        <v>51.93292974401343</v>
+        <v>51.932929744013428</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1535,19 +1558,19 @@
         <v>1511</v>
       </c>
       <c r="H30">
-        <v>30.413066</v>
+        <v>30.413066000000001</v>
       </c>
       <c r="I30">
-        <v>49.68259365892278</v>
+        <v>49.682593658922777</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1564,19 +1587,19 @@
         <v>3665</v>
       </c>
       <c r="H31">
-        <v>77.43016</v>
+        <v>77.430160000000001</v>
       </c>
       <c r="I31">
-        <v>47.33297722747829</v>
+        <v>47.332977227478288</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1596,19 +1619,19 @@
         <v>1537</v>
       </c>
       <c r="H32">
-        <v>37.05066</v>
+        <v>37.050660000000001</v>
       </c>
       <c r="I32">
-        <v>41.48374145021978</v>
+        <v>41.483741450219782</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1625,19 +1648,19 @@
         <v>1563</v>
       </c>
       <c r="H33">
-        <v>36.911795</v>
+        <v>36.911794999999998</v>
       </c>
       <c r="I33">
-        <v>42.34418835496892</v>
+        <v>42.344188354968921</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1654,19 +1677,19 @@
         <v>1867</v>
       </c>
       <c r="H34">
-        <v>45.610873</v>
+        <v>45.610872999999998</v>
       </c>
       <c r="I34">
-        <v>40.9332222165535</v>
+        <v>40.933222216553503</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1683,10 +1706,10 @@
         <v>3217</v>
       </c>
       <c r="H35">
-        <v>74.95078000000001</v>
+        <v>74.950780000000009</v>
       </c>
       <c r="I35">
-        <v>42.92150128390925</v>
+        <v>42.921501283909251</v>
       </c>
       <c r="J35">
         <v>4</v>
@@ -1695,7 +1718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1718,10 +1741,10 @@
         <v>1830</v>
       </c>
       <c r="H36">
-        <v>36.819093</v>
+        <v>36.819093000000002</v>
       </c>
       <c r="I36">
-        <v>49.70247365952225</v>
+        <v>49.702473659522248</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -1730,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1747,10 +1770,10 @@
         <v>2103</v>
       </c>
       <c r="H37">
-        <v>39.155347</v>
+        <v>39.155346999999999</v>
       </c>
       <c r="I37">
-        <v>53.70913964828354</v>
+        <v>53.709139648283539</v>
       </c>
       <c r="J37">
         <v>5</v>
@@ -1759,7 +1782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1776,10 +1799,10 @@
         <v>2176</v>
       </c>
       <c r="H38">
-        <v>45.652923</v>
+        <v>45.652923000000001</v>
       </c>
       <c r="I38">
-        <v>47.66397980694467</v>
+        <v>47.663979806944667</v>
       </c>
       <c r="J38">
         <v>4</v>
@@ -1788,7 +1811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1805,10 +1828,10 @@
         <v>1909</v>
       </c>
       <c r="H39">
-        <v>40.17193</v>
+        <v>40.171930000000003</v>
       </c>
       <c r="I39">
-        <v>47.5207439622642</v>
+        <v>47.520743962264199</v>
       </c>
       <c r="J39">
         <v>4</v>
@@ -1817,7 +1840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1843,7 +1866,7 @@
         <v>27.354892</v>
       </c>
       <c r="I40">
-        <v>56.15083400804507</v>
+        <v>56.150834008045067</v>
       </c>
       <c r="J40">
         <v>5</v>
@@ -1852,7 +1875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1863,10 +1886,10 @@
         <v>1413</v>
       </c>
       <c r="H41">
-        <v>27.097133</v>
+        <v>27.097132999999999</v>
       </c>
       <c r="I41">
-        <v>52.1457380749469</v>
+        <v>52.145738074946898</v>
       </c>
       <c r="J41">
         <v>5</v>
@@ -1875,7 +1898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1886,10 +1909,10 @@
         <v>1420</v>
       </c>
       <c r="H42">
-        <v>27.617738</v>
+        <v>27.617737999999999</v>
       </c>
       <c r="I42">
-        <v>51.41623111929007</v>
+        <v>51.416231119290067</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -1898,7 +1921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1918,7 +1941,7 @@
         <v>26.896963</v>
       </c>
       <c r="I43">
-        <v>54.28122126650507</v>
+        <v>54.281221266505071</v>
       </c>
       <c r="J43">
         <v>5</v>
@@ -1927,7 +1950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1944,10 +1967,10 @@
         <v>1564</v>
       </c>
       <c r="H44">
-        <v>28.472678</v>
+        <v>28.472677999999998</v>
       </c>
       <c r="I44">
-        <v>54.92985240095786</v>
+        <v>54.929852400957863</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -1956,7 +1979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1973,10 +1996,10 @@
         <v>1713</v>
       </c>
       <c r="H45">
-        <v>31.041202</v>
+        <v>31.041201999999998</v>
       </c>
       <c r="I45">
-        <v>55.18471868454063</v>
+        <v>55.184718684540627</v>
       </c>
       <c r="J45">
         <v>5</v>
@@ -1985,7 +2008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2011,7 +2034,7 @@
         <v>42.697471</v>
       </c>
       <c r="I46">
-        <v>46.77091999195924</v>
+        <v>46.770919991959239</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -2020,7 +2043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2037,10 +2060,10 @@
         <v>2311</v>
       </c>
       <c r="H47">
-        <v>51.55182600000001</v>
+        <v>51.551826000000013</v>
       </c>
       <c r="I47">
-        <v>44.82867396394455</v>
+        <v>44.828673963944553</v>
       </c>
       <c r="J47">
         <v>4</v>
@@ -2049,7 +2072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2069,7 +2092,7 @@
         <v>40.820155</v>
       </c>
       <c r="I48">
-        <v>52.76805048878428</v>
+        <v>52.768050488784283</v>
       </c>
       <c r="J48">
         <v>5</v>
@@ -2078,7 +2101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2095,10 +2118,10 @@
         <v>2442</v>
       </c>
       <c r="H49">
-        <v>49.465783</v>
+        <v>49.465783000000002</v>
       </c>
       <c r="I49">
-        <v>49.36745871383457</v>
+        <v>49.367458713834573</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -2107,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2127,10 +2150,10 @@
         <v>4088</v>
       </c>
       <c r="H50">
-        <v>82.335533</v>
+        <v>82.335532999999998</v>
       </c>
       <c r="I50">
-        <v>49.65049536996378</v>
+        <v>49.650495369963778</v>
       </c>
       <c r="J50">
         <v>4</v>
@@ -2139,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2150,10 +2173,10 @@
         <v>3955</v>
       </c>
       <c r="H51">
-        <v>81.783652</v>
+        <v>81.783652000000004</v>
       </c>
       <c r="I51">
-        <v>48.35929801716362</v>
+        <v>48.359298017163617</v>
       </c>
       <c r="J51">
         <v>4</v>
@@ -2162,7 +2185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2179,10 +2202,10 @@
         <v>2808</v>
       </c>
       <c r="H52">
-        <v>57.00986900000001</v>
+        <v>57.009869000000009</v>
       </c>
       <c r="I52">
-        <v>49.25462993082829</v>
+        <v>49.254629930828287</v>
       </c>
       <c r="J52">
         <v>4</v>
@@ -2191,7 +2214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2208,10 +2231,10 @@
         <v>2290</v>
       </c>
       <c r="H53">
-        <v>53.05520600000001</v>
+        <v>53.055206000000013</v>
       </c>
       <c r="I53">
-        <v>43.16258804084183</v>
+        <v>43.162588040841833</v>
       </c>
       <c r="J53">
         <v>4</v>
@@ -2220,7 +2243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2231,10 +2254,10 @@
         <v>1740</v>
       </c>
       <c r="H54">
-        <v>38.47498</v>
+        <v>38.474980000000002</v>
       </c>
       <c r="I54">
-        <v>45.22419504831451</v>
+        <v>45.224195048314513</v>
       </c>
       <c r="J54">
         <v>4</v>
@@ -2243,7 +2266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2260,7 +2283,7 @@
         <v>3071</v>
       </c>
       <c r="H55">
-        <v>70.204134</v>
+        <v>70.204133999999996</v>
       </c>
       <c r="I55">
         <v>43.74386271896752</v>
@@ -2272,7 +2295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2295,10 +2318,10 @@
         <v>1497</v>
       </c>
       <c r="H56">
-        <v>27.849945</v>
+        <v>27.849945000000002</v>
       </c>
       <c r="I56">
-        <v>53.75235031882469</v>
+        <v>53.752350318824689</v>
       </c>
       <c r="J56">
         <v>5</v>
@@ -2307,7 +2330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2324,10 +2347,10 @@
         <v>1664</v>
       </c>
       <c r="H57">
-        <v>32.986516</v>
+        <v>32.986516000000002</v>
       </c>
       <c r="I57">
-        <v>50.4448544975165</v>
+        <v>50.444854497516502</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -2336,7 +2359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2356,7 +2379,7 @@
         <v>27.687303</v>
       </c>
       <c r="I58">
-        <v>46.91681237424967</v>
+        <v>46.916812374249673</v>
       </c>
       <c r="J58">
         <v>4</v>
@@ -2365,7 +2388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2376,10 +2399,10 @@
         <v>8111</v>
       </c>
       <c r="H59">
-        <v>161.407619</v>
+        <v>161.40761900000001</v>
       </c>
       <c r="I59">
-        <v>50.25165509690097</v>
+        <v>50.251655096900969</v>
       </c>
       <c r="J59">
         <v>5</v>
@@ -2388,7 +2411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2405,10 +2428,10 @@
         <v>2335</v>
       </c>
       <c r="H60">
-        <v>52.505819</v>
+        <v>52.505819000000002</v>
       </c>
       <c r="I60">
-        <v>44.4712613662878</v>
+        <v>44.471261366287798</v>
       </c>
       <c r="J60">
         <v>4</v>
@@ -2417,7 +2440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2437,10 +2460,10 @@
         <v>1671</v>
       </c>
       <c r="H61">
-        <v>30.828421</v>
+        <v>30.828420999999999</v>
       </c>
       <c r="I61">
-        <v>54.20323019463112</v>
+        <v>54.203230194631118</v>
       </c>
       <c r="J61">
         <v>5</v>
@@ -2449,7 +2472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2466,10 +2489,10 @@
         <v>1440</v>
       </c>
       <c r="H62">
-        <v>26.348691</v>
+        <v>26.348690999999999</v>
       </c>
       <c r="I62">
-        <v>54.65167131073039</v>
+        <v>54.651671310730393</v>
       </c>
       <c r="J62">
         <v>5</v>
@@ -2478,7 +2501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2501,10 +2524,10 @@
         <v>1699</v>
       </c>
       <c r="H63">
-        <v>39.857232</v>
+        <v>39.857232000000003</v>
       </c>
       <c r="I63">
-        <v>42.62714480523886</v>
+        <v>42.627144805238864</v>
       </c>
       <c r="J63">
         <v>4</v>
@@ -2513,7 +2536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2533,7 +2556,7 @@
         <v>36.617027</v>
       </c>
       <c r="I64">
-        <v>43.94130632178303</v>
+        <v>43.941306321783031</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -2542,7 +2565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2559,10 +2582,10 @@
         <v>2229</v>
       </c>
       <c r="H65">
-        <v>46.20177</v>
+        <v>46.201770000000003</v>
       </c>
       <c r="I65">
-        <v>48.24490490299397</v>
+        <v>48.244904902993973</v>
       </c>
       <c r="J65">
         <v>4</v>
@@ -2571,7 +2594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2591,7 +2614,7 @@
         <v>31.0855</v>
       </c>
       <c r="I66">
-        <v>54.59136896623828</v>
+        <v>54.591368966238278</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -2600,7 +2623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2620,10 +2643,10 @@
         <v>1668</v>
       </c>
       <c r="H67">
-        <v>36.827158</v>
+        <v>36.827157999999997</v>
       </c>
       <c r="I67">
-        <v>45.29266146467235</v>
+        <v>45.292661464672349</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -2632,7 +2655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2649,10 +2672,10 @@
         <v>1616</v>
       </c>
       <c r="H68">
-        <v>35.511938</v>
+        <v>35.511938000000001</v>
       </c>
       <c r="I68">
-        <v>45.5058239851624</v>
+        <v>45.505823985162401</v>
       </c>
       <c r="J68">
         <v>4</v>
@@ -2661,7 +2684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2678,10 +2701,10 @@
         <v>1846</v>
       </c>
       <c r="H69">
-        <v>42.670115</v>
+        <v>42.670115000000003</v>
       </c>
       <c r="I69">
-        <v>43.26212854125188</v>
+        <v>43.262128541251883</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -2690,7 +2713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2707,10 +2730,10 @@
         <v>1760</v>
       </c>
       <c r="H70">
-        <v>39.149083</v>
+        <v>39.149082999999997</v>
       </c>
       <c r="I70">
-        <v>44.9563531283734</v>
+        <v>44.956353128373401</v>
       </c>
       <c r="J70">
         <v>4</v>
@@ -2719,7 +2742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2742,10 +2765,10 @@
         <v>1438</v>
       </c>
       <c r="H71">
-        <v>34.130222</v>
+        <v>34.130222000000003</v>
       </c>
       <c r="I71">
-        <v>42.13274674861476</v>
+        <v>42.132746748614757</v>
       </c>
       <c r="J71">
         <v>4</v>
@@ -2754,7 +2777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2771,10 +2794,10 @@
         <v>1446</v>
       </c>
       <c r="H72">
-        <v>32.73897299999999</v>
+        <v>32.738972999999987</v>
       </c>
       <c r="I72">
-        <v>44.16754306862344</v>
+        <v>44.167543068623438</v>
       </c>
       <c r="J72">
         <v>4</v>
@@ -2783,7 +2806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2800,10 +2823,10 @@
         <v>1525</v>
       </c>
       <c r="H73">
-        <v>33.163763</v>
+        <v>33.163763000000003</v>
       </c>
       <c r="I73">
-        <v>45.98392528616249</v>
+        <v>45.983925286162489</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -2812,7 +2835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2829,10 +2852,10 @@
         <v>1555</v>
       </c>
       <c r="H74">
-        <v>35.028978</v>
+        <v>35.028978000000002</v>
       </c>
       <c r="I74">
-        <v>44.39181754032333</v>
+        <v>44.391817540323331</v>
       </c>
       <c r="J74">
         <v>4</v>
@@ -2841,7 +2864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2861,10 +2884,10 @@
         <v>1612</v>
       </c>
       <c r="H75">
-        <v>31.664546</v>
+        <v>31.664546000000001</v>
       </c>
       <c r="I75">
-        <v>50.90867243130535</v>
+        <v>50.908672431305348</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -2873,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2893,7 +2916,7 @@
         <v>31.912436</v>
       </c>
       <c r="I76">
-        <v>50.54455886727042</v>
+        <v>50.544558867270418</v>
       </c>
       <c r="J76">
         <v>5</v>
@@ -2902,7 +2925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2919,10 +2942,10 @@
         <v>1632</v>
       </c>
       <c r="H77">
-        <v>36.441915</v>
+        <v>36.441915000000002</v>
       </c>
       <c r="I77">
-        <v>44.78359603220632</v>
+        <v>44.783596032206319</v>
       </c>
       <c r="J77">
         <v>4</v>
@@ -2931,7 +2954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2948,10 +2971,10 @@
         <v>1617</v>
       </c>
       <c r="H78">
-        <v>34.73233099999999</v>
+        <v>34.732330999999988</v>
       </c>
       <c r="I78">
-        <v>46.55604600796877</v>
+        <v>46.556046007968767</v>
       </c>
       <c r="J78">
         <v>4</v>
@@ -2960,7 +2983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2983,10 +3006,10 @@
         <v>1434</v>
       </c>
       <c r="H79">
-        <v>28.500216</v>
+        <v>28.500216000000002</v>
       </c>
       <c r="I79">
-        <v>50.31540813585413</v>
+        <v>50.315408135854128</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -2995,7 +3018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3012,10 +3035,10 @@
         <v>1450</v>
       </c>
       <c r="H80">
-        <v>28.554858</v>
+        <v>28.554857999999999</v>
       </c>
       <c r="I80">
-        <v>50.77945055794009</v>
+        <v>50.779450557940088</v>
       </c>
       <c r="J80">
         <v>5</v>
@@ -3024,7 +3047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3041,10 +3064,10 @@
         <v>1505</v>
       </c>
       <c r="H81">
-        <v>28.038409</v>
+        <v>28.038409000000001</v>
       </c>
       <c r="I81">
-        <v>53.67636944022038</v>
+        <v>53.676369440220377</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -3053,7 +3076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3070,10 +3093,10 @@
         <v>1487</v>
       </c>
       <c r="H82">
-        <v>28.196682</v>
+        <v>28.196681999999999</v>
       </c>
       <c r="I82">
-        <v>52.73670143175002</v>
+        <v>52.736701431750021</v>
       </c>
       <c r="J82">
         <v>5</v>
@@ -3082,7 +3105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3105,10 +3128,10 @@
         <v>2678</v>
       </c>
       <c r="H83">
-        <v>52.347067</v>
+        <v>52.347067000000003</v>
       </c>
       <c r="I83">
-        <v>51.15854915042327</v>
+        <v>51.158549150423269</v>
       </c>
       <c r="J83">
         <v>5</v>
@@ -3117,7 +3140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3134,10 +3157,10 @@
         <v>2642</v>
       </c>
       <c r="H84">
-        <v>52.119155</v>
+        <v>52.119154999999999</v>
       </c>
       <c r="I84">
-        <v>50.69153557842601</v>
+        <v>50.691535578426013</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -3146,7 +3169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3163,10 +3186,10 @@
         <v>2611</v>
       </c>
       <c r="H85">
-        <v>49.246833</v>
+        <v>49.246833000000002</v>
       </c>
       <c r="I85">
-        <v>53.01863776702148</v>
+        <v>53.018637767021481</v>
       </c>
       <c r="J85">
         <v>5</v>
@@ -3175,7 +3198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3192,10 +3215,10 @@
         <v>2621</v>
       </c>
       <c r="H86">
-        <v>47.38529399999999</v>
+        <v>47.385293999999988</v>
       </c>
       <c r="I86">
-        <v>55.31251953401408</v>
+        <v>55.312519534014079</v>
       </c>
       <c r="J86">
         <v>5</v>
@@ -3204,7 +3227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3224,10 +3247,10 @@
         <v>1505</v>
       </c>
       <c r="H87">
-        <v>33.606376</v>
+        <v>33.606375999999997</v>
       </c>
       <c r="I87">
-        <v>44.78316852730566</v>
+        <v>44.783168527305662</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -3236,7 +3259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3253,10 +3276,10 @@
         <v>1512</v>
       </c>
       <c r="H88">
-        <v>33.828112</v>
+        <v>33.828111999999997</v>
       </c>
       <c r="I88">
-        <v>44.69655297345592</v>
+        <v>44.696552973455923</v>
       </c>
       <c r="J88">
         <v>4</v>
@@ -3265,7 +3288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3282,10 +3305,10 @@
         <v>2981</v>
       </c>
       <c r="H89">
-        <v>56.919398</v>
+        <v>56.919398000000001</v>
       </c>
       <c r="I89">
-        <v>52.3723037267541</v>
+        <v>52.372303726754097</v>
       </c>
       <c r="J89">
         <v>5</v>
@@ -3294,7 +3317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3311,10 +3334,10 @@
         <v>2808</v>
       </c>
       <c r="H90">
-        <v>56.108546</v>
+        <v>56.108545999999997</v>
       </c>
       <c r="I90">
-        <v>50.04585219513619</v>
+        <v>50.045852195136192</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -3323,7 +3346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3346,10 +3369,10 @@
         <v>1278</v>
       </c>
       <c r="H91">
-        <v>21.209762</v>
+        <v>21.209762000000001</v>
       </c>
       <c r="I91">
-        <v>60.25527302003672</v>
+        <v>60.255273020036718</v>
       </c>
       <c r="J91">
         <v>6</v>
@@ -3358,7 +3381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3375,7 +3398,7 @@
         <v>1162</v>
       </c>
       <c r="H92">
-        <v>19.262581</v>
+        <v>19.262581000000001</v>
       </c>
       <c r="I92">
         <v>60.32421096632897</v>
@@ -3387,7 +3410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3410,7 +3433,7 @@
         <v>18.381442</v>
       </c>
       <c r="I93">
-        <v>60.33258979355374</v>
+        <v>60.332589793553737</v>
       </c>
       <c r="J93">
         <v>6</v>
@@ -3419,7 +3442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3448,7 +3471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3465,10 +3488,10 @@
         <v>1159</v>
       </c>
       <c r="H95">
-        <v>19.22406</v>
+        <v>19.224060000000001</v>
       </c>
       <c r="I95">
-        <v>60.28903363805564</v>
+        <v>60.289033638055642</v>
       </c>
       <c r="J95">
         <v>6</v>
@@ -3477,7 +3500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3494,10 +3517,10 @@
         <v>1194</v>
       </c>
       <c r="H96">
-        <v>19.803892</v>
+        <v>19.803892000000001</v>
       </c>
       <c r="I96">
-        <v>60.29117912781992</v>
+        <v>60.291179127819923</v>
       </c>
       <c r="J96">
         <v>6</v>
@@ -3506,7 +3529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3532,7 +3555,7 @@
         <v>26.482775</v>
       </c>
       <c r="I97">
-        <v>54.94137226933356</v>
+        <v>54.941372269333563</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -3541,7 +3564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3558,10 +3581,10 @@
         <v>1428</v>
       </c>
       <c r="H98">
-        <v>25.753316</v>
+        <v>25.753316000000002</v>
       </c>
       <c r="I98">
-        <v>55.44917011851988</v>
+        <v>55.449170118519881</v>
       </c>
       <c r="J98">
         <v>5</v>
@@ -3570,7 +3593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3587,10 +3610,10 @@
         <v>1547</v>
       </c>
       <c r="H99">
-        <v>32.200929</v>
+        <v>32.200929000000002</v>
       </c>
       <c r="I99">
-        <v>48.04209220174983</v>
+        <v>48.042092201749831</v>
       </c>
       <c r="J99">
         <v>4</v>
@@ -3599,7 +3622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3619,7 +3642,7 @@
         <v>31.544542</v>
       </c>
       <c r="I100">
-        <v>49.07346570446323</v>
+        <v>49.073465704463231</v>
       </c>
       <c r="J100">
         <v>4</v>
@@ -3628,7 +3651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3648,10 +3671,10 @@
         <v>1637</v>
       </c>
       <c r="H101">
-        <v>37.255912</v>
+        <v>37.255912000000002</v>
       </c>
       <c r="I101">
-        <v>43.93933505103834</v>
+        <v>43.939335051038341</v>
       </c>
       <c r="J101">
         <v>4</v>
@@ -3660,7 +3683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3677,7 +3700,7 @@
         <v>1567</v>
       </c>
       <c r="H102">
-        <v>27.915351</v>
+        <v>27.915351000000001</v>
       </c>
       <c r="I102">
         <v>56.13398878631331</v>
@@ -3689,7 +3712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3709,7 +3732,7 @@
         <v>27.569709</v>
       </c>
       <c r="I103">
-        <v>56.62011158695944</v>
+        <v>56.620111586959439</v>
       </c>
       <c r="J103">
         <v>5</v>
@@ -3718,7 +3741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3735,10 +3758,10 @@
         <v>1624</v>
       </c>
       <c r="H104">
-        <v>28.368047</v>
+        <v>28.368047000000001</v>
       </c>
       <c r="I104">
-        <v>57.24750808541737</v>
+        <v>57.247508085417373</v>
       </c>
       <c r="J104">
         <v>5</v>
@@ -3747,7 +3770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3770,10 +3793,10 @@
         <v>2525</v>
       </c>
       <c r="H105">
-        <v>46.704064</v>
+        <v>46.704064000000002</v>
       </c>
       <c r="I105">
-        <v>54.06381765835196</v>
+        <v>54.063817658351958</v>
       </c>
       <c r="J105">
         <v>5</v>
@@ -3782,7 +3805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3799,10 +3822,10 @@
         <v>3569</v>
       </c>
       <c r="H106">
-        <v>64.145798</v>
+        <v>64.145797999999999</v>
       </c>
       <c r="I106">
-        <v>55.63887442790875</v>
+        <v>55.638874427908753</v>
       </c>
       <c r="J106">
         <v>5</v>
@@ -3811,7 +3834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3831,7 +3854,7 @@
         <v>57.93909</v>
       </c>
       <c r="I107">
-        <v>48.08498027842688</v>
+        <v>48.084980278426883</v>
       </c>
       <c r="J107">
         <v>4</v>
@@ -3840,7 +3863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3857,10 +3880,10 @@
         <v>3111</v>
       </c>
       <c r="H108">
-        <v>66.993945</v>
+        <v>66.993944999999997</v>
       </c>
       <c r="I108">
-        <v>46.43703248106974</v>
+        <v>46.437032481069743</v>
       </c>
       <c r="J108">
         <v>4</v>
@@ -3869,7 +3892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3889,10 +3912,10 @@
         <v>2606</v>
       </c>
       <c r="H109">
-        <v>50.591942</v>
+        <v>50.591942000000003</v>
       </c>
       <c r="I109">
-        <v>51.51017922972792</v>
+        <v>51.510179229727918</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -3901,7 +3924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3921,7 +3944,7 @@
         <v>53.759293</v>
       </c>
       <c r="I110">
-        <v>52.47464842962128</v>
+        <v>52.474648429621283</v>
       </c>
       <c r="J110">
         <v>5</v>
@@ -3930,7 +3953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3947,10 +3970,10 @@
         <v>2760</v>
       </c>
       <c r="H111">
-        <v>52.458189</v>
+        <v>52.458188999999997</v>
       </c>
       <c r="I111">
-        <v>52.61332982730303</v>
+        <v>52.613329827303033</v>
       </c>
       <c r="J111">
         <v>5</v>
@@ -3959,7 +3982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3976,7 +3999,7 @@
         <v>2517</v>
       </c>
       <c r="H112">
-        <v>48.236838</v>
+        <v>48.236837999999999</v>
       </c>
       <c r="I112">
         <v>52.18003717407845</v>
@@ -3988,7 +4011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4011,10 +4034,10 @@
         <v>1352</v>
       </c>
       <c r="H113">
-        <v>34.911123</v>
+        <v>34.911123000000003</v>
       </c>
       <c r="I113">
-        <v>38.72691233679306</v>
+        <v>38.726912336793063</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -4023,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4040,10 +4063,10 @@
         <v>1039</v>
       </c>
       <c r="H114">
-        <v>25.715217</v>
+        <v>25.715216999999999</v>
       </c>
       <c r="I114">
-        <v>40.40409225401442</v>
+        <v>40.404092254014422</v>
       </c>
       <c r="J114">
         <v>4</v>
@@ -4052,7 +4075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4072,7 +4095,7 @@
         <v>21.460794</v>
       </c>
       <c r="I115">
-        <v>40.02647805109168</v>
+        <v>40.026478051091679</v>
       </c>
       <c r="J115">
         <v>4</v>
@@ -4081,7 +4104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4098,10 +4121,10 @@
         <v>197</v>
       </c>
       <c r="H116">
-        <v>5.793938</v>
+        <v>5.7939379999999998</v>
       </c>
       <c r="I116">
-        <v>34.00105420527455</v>
+        <v>34.001054205274549</v>
       </c>
       <c r="J116">
         <v>3</v>
@@ -4110,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4121,10 +4144,10 @@
         <v>2147</v>
       </c>
       <c r="H117">
-        <v>35.730727</v>
+        <v>35.730727000000002</v>
       </c>
       <c r="I117">
-        <v>60.08833797308407</v>
+        <v>60.088337973084073</v>
       </c>
       <c r="J117">
         <v>6</v>
@@ -4133,7 +4156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4153,10 +4176,10 @@
         <v>1306</v>
       </c>
       <c r="H118">
-        <v>25.227786</v>
+        <v>25.227785999999998</v>
       </c>
       <c r="I118">
-        <v>51.76831609400841</v>
+        <v>51.768316094008412</v>
       </c>
       <c r="J118">
         <v>5</v>
@@ -4165,7 +4188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4182,10 +4205,10 @@
         <v>1170</v>
       </c>
       <c r="H119">
-        <v>24.589753</v>
+        <v>24.589753000000002</v>
       </c>
       <c r="I119">
-        <v>47.58079513852783</v>
+        <v>47.580795138527833</v>
       </c>
       <c r="J119">
         <v>4</v>
@@ -4194,7 +4217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4211,10 +4234,10 @@
         <v>1173</v>
       </c>
       <c r="H120">
-        <v>24.407189</v>
+        <v>24.407188999999999</v>
       </c>
       <c r="I120">
-        <v>48.05961063357194</v>
+        <v>48.059610633571943</v>
       </c>
       <c r="J120">
         <v>4</v>
@@ -4223,7 +4246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4243,7 +4266,7 @@
         <v>28.231171</v>
       </c>
       <c r="I121">
-        <v>43.85223694759243</v>
+        <v>43.852236947592431</v>
       </c>
       <c r="J121">
         <v>4</v>
@@ -4252,7 +4275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4278,7 +4301,7 @@
         <v>24.173171</v>
       </c>
       <c r="I122">
-        <v>60.23206471339652</v>
+        <v>60.232064713396518</v>
       </c>
       <c r="J122">
         <v>6</v>
@@ -4287,7 +4310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4301,7 +4324,7 @@
         <v>11.858948</v>
       </c>
       <c r="I123">
-        <v>60.46067492664611</v>
+        <v>60.460674926646107</v>
       </c>
       <c r="J123">
         <v>6</v>
@@ -4310,7 +4333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4330,7 +4353,7 @@
         <v>10.803604</v>
       </c>
       <c r="I124">
-        <v>60.44279297908365</v>
+        <v>60.442792979083649</v>
       </c>
       <c r="J124">
         <v>6</v>
@@ -4339,7 +4362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4353,7 +4376,7 @@
         <v>12.092245</v>
       </c>
       <c r="I125">
-        <v>60.45196735593763</v>
+        <v>60.451967355937633</v>
       </c>
       <c r="J125">
         <v>6</v>
@@ -4362,7 +4385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4373,10 +4396,10 @@
         <v>1183</v>
       </c>
       <c r="H126">
-        <v>32.040625</v>
+        <v>32.040624999999999</v>
       </c>
       <c r="I126">
-        <v>36.92187652394421</v>
+        <v>36.921876523944213</v>
       </c>
       <c r="J126">
         <v>3</v>
@@ -4385,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4408,10 +4431,10 @@
         <v>1221</v>
       </c>
       <c r="H127">
-        <v>28.050865</v>
+        <v>28.050865000000002</v>
       </c>
       <c r="I127">
-        <v>43.52806945525566</v>
+        <v>43.528069455255661</v>
       </c>
       <c r="J127">
         <v>4</v>
@@ -4420,7 +4443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4437,10 +4460,10 @@
         <v>1275</v>
       </c>
       <c r="H128">
-        <v>27.371543</v>
+        <v>27.371542999999999</v>
       </c>
       <c r="I128">
-        <v>46.58122488746798</v>
+        <v>46.581224887467982</v>
       </c>
       <c r="J128">
         <v>4</v>
@@ -4449,7 +4472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4466,10 +4489,10 @@
         <v>1442</v>
       </c>
       <c r="H129">
-        <v>27.628191</v>
+        <v>27.628191000000001</v>
       </c>
       <c r="I129">
-        <v>52.19306613306676</v>
+        <v>52.193066133066758</v>
       </c>
       <c r="J129">
         <v>5</v>
@@ -4478,7 +4501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4495,7 +4518,7 @@
         <v>208</v>
       </c>
       <c r="H130">
-        <v>4.113682</v>
+        <v>4.1136819999999998</v>
       </c>
       <c r="I130">
         <v>50.56297496986884</v>
@@ -4507,7 +4530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4530,10 +4553,10 @@
         <v>1328</v>
       </c>
       <c r="H131">
-        <v>22.040165</v>
+        <v>22.040164999999998</v>
       </c>
       <c r="I131">
-        <v>60.25363240247975</v>
+        <v>60.253632402479752</v>
       </c>
       <c r="J131">
         <v>6</v>
@@ -4542,7 +4565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4562,7 +4585,7 @@
         <v>24.090906</v>
       </c>
       <c r="I132">
-        <v>60.23019640689312</v>
+        <v>60.230196406893121</v>
       </c>
       <c r="J132">
         <v>6</v>
@@ -4571,7 +4594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4591,7 +4614,7 @@
         <v>26.73753</v>
       </c>
       <c r="I133">
-        <v>60.214986201044</v>
+        <v>60.214986201043999</v>
       </c>
       <c r="J133">
         <v>6</v>
@@ -4600,7 +4623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4617,10 +4640,10 @@
         <v>1497</v>
       </c>
       <c r="H134">
-        <v>24.849016</v>
+        <v>24.849015999999999</v>
       </c>
       <c r="I134">
-        <v>60.24383420252938</v>
+        <v>60.243834202529378</v>
       </c>
       <c r="J134">
         <v>6</v>
@@ -4629,7 +4652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4652,7 +4675,7 @@
         <v>20.772879</v>
       </c>
       <c r="I135">
-        <v>60.27089456401301</v>
+        <v>60.270894564013012</v>
       </c>
       <c r="J135">
         <v>6</v>
@@ -4661,7 +4684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4678,10 +4701,10 @@
         <v>1222</v>
       </c>
       <c r="H136">
-        <v>20.266021</v>
+        <v>20.266020999999999</v>
       </c>
       <c r="I136">
-        <v>60.29797363774566</v>
+        <v>60.297973637745663</v>
       </c>
       <c r="J136">
         <v>6</v>
@@ -4690,7 +4713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4710,7 +4733,7 @@
         <v>21.351073</v>
       </c>
       <c r="I137">
-        <v>60.27800101662338</v>
+        <v>60.278001016623378</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -4719,7 +4742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4736,10 +4759,10 @@
         <v>1196</v>
       </c>
       <c r="H138">
-        <v>19.836377</v>
+        <v>19.836376999999999</v>
       </c>
       <c r="I138">
-        <v>60.29326827172119</v>
+        <v>60.293268271721189</v>
       </c>
       <c r="J138">
         <v>6</v>
